--- a/Reference Studies - news classification .xlsx
+++ b/Reference Studies - news classification .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -85,12 +85,46 @@
     <t>news classification using machine learning</t>
   </si>
   <si>
+    <t>In the context of Natural Language Processing (NLP), various techniques are employed to process and analyze text data</t>
+  </si>
+  <si>
+    <t>In Natural Language Processing (NLP), the typical approach involves several key processes to analyze and understand text data: Data Collection,Data Preprocessing,Feature Engineering,Model Building,Model Evaluation,Model Deployment</t>
+  </si>
+  <si>
+    <t>a news related dataset which having</t>
+  </si>
+  <si>
     <t>News Classification Using Machine Learning</t>
   </si>
   <si>
     <t>Multi‑category news classifcation using Support Vector Machine based classifers</t>
   </si>
   <si>
+    <t>We found in this research that provides a complete analysis of the                                                     machine learning algorithm clasifier svm (support vector machine ) , its types, and a comparison of both of them,The comparison is done in terms of generalization ability and time complexity of the individual</t>
+  </si>
+  <si>
+    <t>Techniques used in natural language processing: Tokenization, stemming and elimination of stop 
+words , They use of TF-IDF (Term Frequency-Inverse Document Frequency) for assigning weights to terms based on their relevance in the classification process</t>
+  </si>
+  <si>
+    <t>they found  the ls-tw svm classifer it is the best one of thrid classifier  Whether in terms of accuracy, time complexity, training and testing</t>
+  </si>
+  <si>
+    <t>various types of data like entertainment, education,</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls-tw svm : 0.9754  , tw svm : 0.9605  ,ls svm : 0.8153                            </t>
+  </si>
+  <si>
+    <t>presents a comprehensive study on multi-category news classification using Support Vector Machine (SVM) based classifiers, focusing on LS-SVM, TWSVM, and LS-TWSVM.The study compares the generalization ability and time complexity of LS-SVM, TWSVM, and LS-TWSVM on benchmark</t>
+  </si>
+  <si>
+    <t>the features and aspects discussed in the context of multi-category news classification using SVM-based classifiers include:SVM-based Classifiers,Preprocessing Techniques,TF-IDF,Data Extraction,Confusion Matrices,Performance Metrics,Generalization Ability,Time Complexity</t>
+  </si>
+  <si>
     <t>Multi-category news classification using Support Vector Machine based classifiers | Discover Applied Sciences</t>
   </si>
   <si>
@@ -106,10 +140,10 @@
     <t>SVM algorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">2750 documents Arabic </t>
-  </si>
-  <si>
-    <t>F1-score</t>
+    <t>sports, politics, etc</t>
+  </si>
+  <si>
+    <t>By using matrix evaluation techniques like confusion matrices and performance metrics, the authors were able to analyze and compare the effectiveness of SVM-based classifiers in multi-category news classification tasks.</t>
   </si>
   <si>
     <t>91.2% (75:25)</t>
@@ -294,29 +328,29 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,16 +669,22 @@
       <c r="C3" s="5">
         <v>2021.0</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="62.25" customHeight="1">
@@ -652,21 +692,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5">
         <v>2020.0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
-        <v>24</v>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="62.25" customHeight="1">
@@ -674,300 +730,300 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>2018.0</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>27</v>
+      <c r="D5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="47.25" customHeight="1">
       <c r="A6" s="13">
         <v>5.0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>35</v>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>2021.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="45.75" customHeight="1">
       <c r="A7" s="13">
         <v>6.0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="13">
         <v>7.0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="13">
         <v>8.0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10">
       <c r="A10" s="13">
         <v>9.0</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="13">
         <v>10.0</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="13">
         <v>11.0</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13">
       <c r="A13" s="13">
         <v>12.0</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14">
       <c r="A14" s="13">
         <v>13.0</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15">
       <c r="A15" s="13">
         <v>14.0</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16">
       <c r="A16" s="13">
         <v>15.0</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17">
       <c r="A17" s="13">
         <v>16.0</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18">
       <c r="A18" s="13">
         <v>17.0</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19">
       <c r="A19" s="13">
         <v>18.0</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20">
       <c r="A20" s="13">
         <v>19.0</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Reference Studies - news classification .xlsx
+++ b/Reference Studies - news classification .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ML Algorithm</t>
+  </si>
+  <si>
+    <t>Deep Learning AL</t>
   </si>
   <si>
     <t>Dataset</t>
@@ -67,6 +70,9 @@
     <t>BERTje</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>A dataset was created containing 1,771 Dutch language news articles</t>
   </si>
   <si>
@@ -82,19 +88,39 @@
     <t>Economics, business and politics</t>
   </si>
   <si>
-    <t>news classification using machine learning</t>
-  </si>
-  <si>
-    <t>In the context of Natural Language Processing (NLP), various techniques are employed to process and analyze text data</t>
-  </si>
-  <si>
-    <t>In Natural Language Processing (NLP), the typical approach involves several key processes to analyze and understand text data: Data Collection,Data Preprocessing,Feature Engineering,Model Building,Model Evaluation,Model Deployment</t>
-  </si>
-  <si>
-    <t>a news related dataset which having</t>
-  </si>
-  <si>
-    <t>News Classification Using Machine Learning</t>
+    <t>Spotting fake news in Arabic with Machine and Deep Learning Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study examines the content of fake news in the Arabic-speaking world through YouTube comments and compares the performance of machine learning and deep learning techniques in detecting fake news.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study uses preprocessing, classical machine learning, and neural networks </t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM), Decision Tree (DT), Multinomial Naive Bayes (MNB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long Short-Term Memory (LSTM), Bidirectional Long Short-Term Memory (BILSTM), and Convolutional Neural Network (CNN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study uses an Arabic corpus for fake news analysis, focusing on rumors related to the death of prominent Arab personalities.</t>
+  </si>
+  <si>
+    <t>accuracy, precision,
+and recall</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>The study concludes that both machine learning and deep learning models showed high accuracy in detecting fake news in Arabic, with the SVM classifier performing the best among the machine learning models and the BiLSTM classifier performing the best among the deep learning models.</t>
+  </si>
+  <si>
+    <t>Fake , real</t>
+  </si>
+  <si>
+    <t>Spotting fake news in Arabic with Machine and Deep Learning Techniques - Archive ouverte HAL</t>
   </si>
   <si>
     <t>Multi‑category news classifcation using Support Vector Machine based classifers</t>
@@ -192,6 +218,21 @@
   </si>
   <si>
     <t>non</t>
+  </si>
+  <si>
+    <t>news classification using machine learning</t>
+  </si>
+  <si>
+    <t>In the context of Natural Language Processing (NLP), various techniques are employed to process and analyze text data</t>
+  </si>
+  <si>
+    <t>In Natural Language Processing (NLP), the typical approach involves several key processes to analyze and understand text data: Data Collection,Data Preprocessing,Feature Engineering,Model Building,Model Evaluation,Model Deployment</t>
+  </si>
+  <si>
+    <t>a news related dataset which having</t>
+  </si>
+  <si>
+    <t>News Classification Using Machine Learning</t>
   </si>
 </sst>
 </file>
@@ -235,8 +276,10 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -285,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -325,32 +368,29 @@
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +617,10 @@
     <col customWidth="1" min="4" max="4" width="53.75"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="27.63"/>
-    <col customWidth="1" min="7" max="8" width="25.25"/>
-    <col customWidth="1" min="9" max="9" width="25.63"/>
-    <col customWidth="1" min="10" max="10" width="25.5"/>
-    <col customWidth="1" min="11" max="12" width="25.25"/>
+    <col customWidth="1" min="7" max="9" width="25.25"/>
+    <col customWidth="1" min="10" max="10" width="25.63"/>
+    <col customWidth="1" min="11" max="11" width="25.5"/>
+    <col customWidth="1" min="12" max="13" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -620,418 +660,475 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="63.0" customHeight="1">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>2020.0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="59.25" customHeight="1">
-      <c r="A3" s="13">
+    </row>
+    <row r="3" ht="63.0" customHeight="1">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" ht="62.25" customHeight="1">
-      <c r="A4" s="13">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5">
         <v>2020.0</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="62.25" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5">
         <v>2018.0</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>38</v>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="47.25" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>46</v>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="5">
         <v>2021.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" ht="45.75" customHeight="1">
-      <c r="A7" s="13">
+        <v>61</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="59.25" customHeight="1">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13">
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2021.0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25" customHeight="1">
+      <c r="A8" s="16">
         <v>7.0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" ht="48.0" customHeight="1">
+      <c r="A9" s="16">
         <v>8.0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" ht="45.0" customHeight="1">
+      <c r="A10" s="20">
         <v>9.0</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="13">
+      <c r="A11" s="20">
         <v>10.0</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="13">
+      <c r="A12" s="20">
         <v>11.0</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="13">
+      <c r="A13" s="20">
         <v>12.0</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14">
-      <c r="A14" s="13">
+      <c r="A14" s="20">
         <v>13.0</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="13">
+      <c r="A15" s="20">
         <v>14.0</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16">
-      <c r="A16" s="13">
+      <c r="A16" s="20">
         <v>15.0</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="13">
+      <c r="A17" s="20">
         <v>16.0</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="13">
+      <c r="A18" s="20">
         <v>17.0</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="13">
+      <c r="A19" s="20">
         <v>18.0</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="13">
+      <c r="A20" s="20">
         <v>19.0</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
-    <hyperlink r:id="rId2" ref="L3"/>
-    <hyperlink r:id="rId3" ref="L4"/>
-    <hyperlink display="https://docs.google.com/spreadsheets/d/1Owl_aRtzi-hwGqN9q_bLtI4xIdZupBKMvXjX4m_D1Lo/edit#gid=0&amp;range=D5" location="'الورقة1'!D5" ref="L5"/>
+    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId2" ref="M3"/>
+    <hyperlink r:id="rId3" ref="M4"/>
+    <hyperlink display="https://docs.google.com/spreadsheets/d/1Owl_aRtzi-hwGqN9q_bLtI4xIdZupBKMvXjX4m_D1Lo/edit#gid=0&amp;range=D5" location="'الورقة1'!D5" ref="M5"/>
+    <hyperlink r:id="rId4" ref="M7"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Reference Studies - news classification .xlsx
+++ b/Reference Studies - news classification .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -73,7 +73,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>A dataset was created containing 1,771 Dutch language news articles</t>
+    <t>GitHub - wietsedv/bertje: BERTje is a Dutch pre-trained BERT model developed at the University of Groningen. (EMNLP Findings 2020) "What’s so special about BERT’s layers? A closer look at the NLP pipeline in monolingual and multilingual models"</t>
   </si>
   <si>
     <t>F1-score and Jaccard accuracy.</t>
@@ -104,9 +104,6 @@
     <t xml:space="preserve"> Long Short-Term Memory (LSTM), Bidirectional Long Short-Term Memory (BILSTM), and Convolutional Neural Network (CNN)</t>
   </si>
   <si>
-    <t xml:space="preserve"> The study uses an Arabic corpus for fake news analysis, focusing on rumors related to the death of prominent Arab personalities.</t>
-  </si>
-  <si>
     <t>accuracy, precision,
 and recall</t>
   </si>
@@ -136,9 +133,6 @@
     <t>they found  the ls-tw svm classifer it is the best one of thrid classifier  Whether in terms of accuracy, time complexity, training and testing</t>
   </si>
   <si>
-    <t>various types of data like entertainment, education,</t>
-  </si>
-  <si>
     <t>F1-score</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>SVM algorithm</t>
-  </si>
-  <si>
-    <t>sports, politics, etc</t>
   </si>
   <si>
     <t>By using matrix evaluation techniques like confusion matrices and performance metrics, the authors were able to analyze and compare the effectiveness of SVM-based classifiers in multi-category news classification tasks.</t>
@@ -183,7 +174,7 @@
 text classification algorithms</t>
   </si>
   <si>
-    <t>https://docs.google.com/spreadsheets/d/1Owl_aRtzi-hwGqN9q_bLtI4xIdZupBKMvXjX4m_D1Lo/edit#gid=0&amp;range=D5</t>
+    <t>https://www.researchgate.net/publication/327012264_Filtering_approach_and_system_combination_for_Arabic_news_classification?_tp=eyJjb250ZXh0Ijp7ImZpcnN0UGFnZSI6InB1YmxpY2F0aW9uIiwicGFnZSI6InB1YmxpY2F0aW9uIn19#read</t>
   </si>
   <si>
     <t>Online News Classification Using Machine Learning Techniques</t>
@@ -198,13 +189,6 @@
     <t>The article uses several algorithms to classify news articles, including Naive Bayes, K-Nearest Neighbors (KNN), Support Vector Machine (SVM), and Logistic Regression (LR).</t>
   </si>
   <si>
-    <t xml:space="preserve">Reuter-21578 - Sohu laboratory corpus - Single-label news corpus - Reuters-21578 - Czech News Articles -  Various news websites - News articles of emotional topics - Stock new of China ... Tigrigna
-news dataset - Uzbek Daryo
-online news - Society
-channel of
-Sina </t>
-  </si>
-  <si>
     <t xml:space="preserve">The matrix evaluation used in the article includes performance metrics such as accuracy, recall, precision, and confusion matrix to measure the effectiveness of the classification algorithms in categorizing news articles. </t>
   </si>
   <si>
@@ -217,7 +201,7 @@
     <t>Entertainment, crime, political, business, world news, sports, media, and technology</t>
   </si>
   <si>
-    <t>non</t>
+    <t>1662-Article Text-12759-12507-10-20210526 (1).pdf</t>
   </si>
   <si>
     <t>news classification using machine learning</t>
@@ -229,17 +213,146 @@
     <t>In Natural Language Processing (NLP), the typical approach involves several key processes to analyze and understand text data: Data Collection,Data Preprocessing,Feature Engineering,Model Building,Model Evaluation,Model Deployment</t>
   </si>
   <si>
-    <t>a news related dataset which having</t>
-  </si>
-  <si>
     <t>News Classification Using Machine Learning</t>
+  </si>
+  <si>
+    <t>classification and generation of arabic news title from raw text based on an encoder-decoder transform model (mt5)</t>
+  </si>
+  <si>
+    <t>This research presents a model or structure of the types of structures in natural language processing, which is the multilingual transform 5. The goal of this research was to improve the performance of the MT5 model in two main tasks, which are topic classification and generating headlines.</t>
+  </si>
+  <si>
+    <t>text preprocessing, text presentation feature enginering, model building, training the model , evaluation ,fine -tuning, dyployment</t>
+  </si>
+  <si>
+    <t>accuracy ,F!-score</t>
+  </si>
+  <si>
+    <t>mt5 small 78.58%                            mt5 base 82.3%                             mt5 large 87.42%</t>
+  </si>
+  <si>
+    <t>Obtaining high performance in classifying news headlines and using a large data set</t>
+  </si>
+  <si>
+    <t>sport , political , finicial ,                    artistic, technical , medical ,               cultural ,religious ,community</t>
+  </si>
+  <si>
+    <t>https://www.researchsquare.com/article/rs-3982909/v1</t>
+  </si>
+  <si>
+    <t>Analysis and Implementation of Ontology Based
+Text Classification on Criminality Digital News</t>
+  </si>
+  <si>
+    <t>Based on the document provided, the research paper focuses on the analysis and implementation of ontology-based text classification on criminality digital news. The system classifies news articles into different criminality classes using ontology to identify prevalent crime trends in West Java. The performance evaluation of the system includes metrics such as F1 Score, Precision, Recall, and Accuracy, showing that the system performs well, especially when the composition of the criminal dataset and non-criminal dataset is balanced.</t>
+  </si>
+  <si>
+    <t>In the research paper "Analysis and Implementation of Ontology Based Text Classification on Criminality Digital News</t>
+  </si>
+  <si>
+    <t>the ML algorithm utilized for text classification is primarily based on ontology</t>
+  </si>
+  <si>
+    <t>F1 Score: 87.05%
+Accuracy: 86.74%</t>
+  </si>
+  <si>
+    <t>Based on the research paper "Analysis and Implementation of Ontology Based Text Classification on Criminality Digital News," the study focuses on utilizing ontology for text classification to analyze criminality trends in West Java. The system classifies news articles into criminality classes based on ontology to identify prevalent crime trends with high accuracy. The evaluation metrics used to measure the system's performance include F1 Score, Precision, Recall, and Accuracy. The most prevalent crime trend identified in the analysis of criminality digital news in West Java is Property Crime.</t>
+  </si>
+  <si>
+    <t>The system in the study classified news articles into different criminality classes using ontology</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1757-899X/662/2/022135/meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications of Deep Learning in News Text Classification
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this paper proposes a news text classification method based on the combination of deep learning
+(DL) algorithms,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2 (text preprocessing and feature expression):
+word segmentation and filtering stop words, using the
+word2vec model in order to get the text word vector,
+and calculate the text dispersion vector. </t>
+  </si>
+  <si>
+    <t>Step 1: input the text into the CNN model to predict
+whether the text belongs to the news event or not,Step 3: input the word vector to MCNN (multipleCNN) modules and get the text spatial feature information through two convolution and pooling operations and then input the spatial feature to the LSTM module to learn the temporal feature information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy
+Recall
+Comprehensive value
+</t>
+  </si>
+  <si>
+    <t>MLP:
+Accuracy: 88.76
+Recall: 88.25
+Comprehensive value: 88.05
+Text-CNN:
+Accuracy: 92.46
+Recall: 91.35
+Comprehensive value: 91.2
+Text-LSTM:
+Accuracy: 92.35
+Recall: 92.2
+Comprehensive value: 91.2
+CNN-MLP:
+Accuracy: 93.68
+Recall: 91.53
+Comprehensive value: 91.52
+CLSTM:
+Accuracy: 93
+Recall: 93.05
+Comprehensive value: 93.1
+DCLSTM-MLP:
+Accuracy: 94.82
+Recall: 94.97
+Comprehensive value: 94.83</t>
+  </si>
+  <si>
+    <t>In conclusion, the research presented in the PDF file highlights the effectiveness of deep learning algorithms, particularly the DCLSTM-MLP model, in news text classification. By combining CNN, LSTM, and MLP algorithms, the DCLSTM-MLP model demonstrates superior performance in terms of accuracy, recall, and comprehensive value compared to other models such as MLP, Text-CNN, Text-LSTM, CNN-MLP, and CLSTM.</t>
+  </si>
+  <si>
+    <t>Here are some key features highlighted in the document:Two-Level Classification Model,Word Vector vs. Discrete Vector,Comprehensive Learning,Improved Performance,Customized Algorithm</t>
+  </si>
+  <si>
+    <t>Applications of Deep Learning in News Text Classification</t>
+  </si>
+  <si>
+    <t>Word2vec convolutional neural networks for
+classification of news articles and tweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The study aims to improve the accuracy of classifying related and unrelated news articles and tweets by leveraging word embeddings generated by word2vec models. The authors collected news articles and tweets related to a specific disease over a period of 62 days and used them as training datasets for word2vec CBOW and Skip-gram models. The results of the experiments demonstrate the effectiveness of word2vec in enhancing the classification accuracy, with different models performing better on news articles versus tweets. Additionally, the study highlights the importance of semantic similarity and relatedness between clinical terms in the context of healthcare information retrieval.</t>
+  </si>
+  <si>
+    <t>the Natural Language Processing (NLP) approach used in the study involves several key steps:Data Collection,Preprocessing,Similarity Verification,Word Extraction,Word Embedding,Classification Model</t>
+  </si>
+  <si>
+    <t>This paper discusses the application of deep learning, specifically Convolutional Neural Networks (CNNs), in the context of classifying news articles and tweets related to a specific disease. The study leverages word2vec models to generate word embeddings that capture semantic relationships between words in the collected data. These word embeddings are then used as input features for the CNN classification model</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article/figure?id=10.1371/journal.pone.0220976.t002</t>
+  </si>
+  <si>
+    <t>Accuracy                                                 Precision and Recall                         F1 Score                                                       Confusion MatrixROC Curve and AUC                                                                 Cross-Validation</t>
+  </si>
+  <si>
+    <t>The accuracy and F1 score values of the CNN models, with CNN with CBOW performing well on news articles and CNN with Skip-gram showing better performance on tweets.
+The impact of training volume and epochs on model performance, with increases in these parameters leading to improved classification accuracy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -259,8 +372,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <i/>
@@ -276,13 +394,33 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +441,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -324,11 +468,33 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -341,56 +507,74 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,22 +870,22 @@
       <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -709,7 +893,7 @@
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5">
@@ -721,414 +905,374 @@
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" ht="62.25" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
+      <c r="B4" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="5">
         <v>2020.0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" ht="62.25" customHeight="1">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
+      <c r="B5" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="5">
         <v>2018.0</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="J5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="L5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" ht="47.25" customHeight="1">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
+      <c r="B6" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="5">
         <v>2021.0</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="M6" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" ht="59.25" customHeight="1">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
+      <c r="B7" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>2021.0</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="73.5" customHeight="1">
+      <c r="A8" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2024.0</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="K8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="8" ht="47.25" customHeight="1">
-      <c r="A8" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+    <row r="9" ht="67.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="9" ht="48.0" customHeight="1">
-      <c r="A9" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+    <row r="10" ht="66.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2021.0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" ht="45.0" customHeight="1">
-      <c r="A10" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20">
+    <row r="11" ht="63.75" customHeight="1">
+      <c r="A11" s="23">
         <v>10.0</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="B11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2019.0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId2" ref="M3"/>
-    <hyperlink r:id="rId3" ref="M4"/>
-    <hyperlink display="https://docs.google.com/spreadsheets/d/1Owl_aRtzi-hwGqN9q_bLtI4xIdZupBKMvXjX4m_D1Lo/edit#gid=0&amp;range=D5" location="'الورقة1'!D5" ref="M5"/>
-    <hyperlink r:id="rId4" ref="M7"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="M2"/>
+    <hyperlink r:id="rId3" ref="M3"/>
+    <hyperlink r:id="rId4" ref="M4"/>
+    <hyperlink r:id="rId5" location="read" ref="M5"/>
+    <hyperlink r:id="rId6" ref="M6"/>
+    <hyperlink r:id="rId7" ref="M7"/>
+    <hyperlink r:id="rId8" ref="M8"/>
+    <hyperlink r:id="rId9" ref="M9"/>
+    <hyperlink r:id="rId10" location="references" ref="M10"/>
+    <hyperlink r:id="rId11" ref="H11"/>
+    <hyperlink r:id="rId12" ref="M11"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Reference Studies - news classification .xlsx
+++ b/Reference Studies - news classification .xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unavercity\NC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDBABAE-A3A3-4A7C-BC00-4B199E114EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="الورقة1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="الورقة2" sheetId="2" r:id="rId5"/>
+    <sheet name="الورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="الورقة2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -468,39 +477,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -508,47 +520,55 @@
     <font>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -558,7 +578,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -592,7 +612,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -606,6 +632,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,11 +641,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -628,143 +658,128 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -954,36 +969,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="65.63"/>
-    <col customWidth="1" min="3" max="3" width="7.0"/>
-    <col customWidth="1" min="4" max="4" width="53.75"/>
-    <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="27.63"/>
-    <col customWidth="1" min="7" max="9" width="25.25"/>
-    <col customWidth="1" min="10" max="10" width="25.63"/>
-    <col customWidth="1" min="11" max="11" width="25.5"/>
-    <col customWidth="1" min="12" max="12" width="25.25"/>
-    <col customWidth="1" min="13" max="13" width="38.13"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" customWidth="1"/>
+    <col min="13" max="13" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,623 +1011,624 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="81.0" customHeight="1">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:13" ht="81" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
-        <v>2021.0</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="84.0" customHeight="1">
-      <c r="A3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:13" ht="84" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="84.0" customHeight="1">
-      <c r="A4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:13" ht="84" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7">
-        <v>2018.0</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="67.5" customHeight="1">
-      <c r="A5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:13" ht="67.5" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1">
-      <c r="A6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:13" ht="82.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7">
-        <v>2021.0</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="84.0" customHeight="1">
-      <c r="A7" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:13" ht="84" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7">
-        <v>2023.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="88.5" customHeight="1">
-      <c r="A8" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:13" ht="88.5" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7">
-        <v>2020.0</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" ht="82.5" customHeight="1">
-      <c r="A9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:13" ht="82.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="7">
-        <v>2019.0</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="24" t="s">
+      <c r="L9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" ht="84.0" customHeight="1">
-      <c r="A10" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:13" ht="84" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="7">
-        <v>2021.0</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" ht="88.5" customHeight="1">
-      <c r="A11" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:13" ht="88.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="7">
-        <v>2024.0</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="28" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId2" ref="M3"/>
-    <hyperlink r:id="rId3" location="read" ref="M4"/>
-    <hyperlink r:id="rId4" ref="M5"/>
-    <hyperlink r:id="rId5" ref="M6"/>
-    <hyperlink r:id="rId6" ref="M7"/>
-    <hyperlink r:id="rId7" ref="H8"/>
-    <hyperlink r:id="rId8" ref="M8"/>
-    <hyperlink r:id="rId9" ref="H9"/>
-    <hyperlink r:id="rId10" ref="M9"/>
-    <hyperlink r:id="rId11" location="references" ref="M10"/>
-    <hyperlink r:id="rId12" ref="M11"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" location="read" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M10" r:id="rId11" location="references" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="21.75"/>
-    <col customWidth="1" min="7" max="7" width="25.25"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="13.2">
+      <c r="A1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="52.8">
+      <c r="A2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="32">
-        <v>2021.0</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="25">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:7" ht="105.6">
+      <c r="A3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="32">
-        <v>2020.0</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="25">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" ht="90.75" customHeight="1">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7" ht="90.75" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="32">
-        <v>2018.0</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="25">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" ht="82.5" customHeight="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:7" ht="82.5" customHeight="1">
+      <c r="A5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="32">
-        <v>2023.0</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="25">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" ht="51.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="32">
-        <v>2024.0</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="25">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>